--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09533F25-29AD-4777-8120-F7B578E0858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2970" yWindow="1965" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,577 +445,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45596</v>
       </c>
-      <c r="B2" s="2">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C32" si="0">(B2/B14-1)*100</f>
-        <v>0.65028901734105471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3" s="2" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45565</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.28860028860029363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45535</v>
       </c>
-      <c r="B4" s="2">
-        <v>140.30000000000001</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.4461315979754197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5" s="2" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45504</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2" t="n">
         <v>138.9</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2" t="n">
         <v>138.5</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.58097312999274564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45443</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.3119533527696792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45412</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2" t="n">
         <v>135.5</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-1.3828238719068464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45382</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2" t="n">
         <v>137.1</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.86767895878525625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45351</v>
       </c>
-      <c r="B10" s="2">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-1.6428571428571459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B11" s="2" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45322</v>
       </c>
-      <c r="B11" s="2">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-2.1849963583393972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="2" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>138.6</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2.0618556701030855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45260</v>
       </c>
-      <c r="B13" s="2">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1.6986706056129952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B14" s="2" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45230</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>138.4</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.28985507246377384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>138.6</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-0.64516129032258229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45169</v>
       </c>
-      <c r="B16" s="2">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-0.64655172413791151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B17" s="2" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45138</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2" t="n">
         <v>138.9</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.2888086642599319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45107</v>
       </c>
-      <c r="B18" s="2">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-2.6166902404526238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B19" s="2" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45077</v>
       </c>
-      <c r="B19" s="2">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-2.3487544483985823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B20" s="2" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45046</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2" t="n">
         <v>137.4</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-1.5759312320916874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45016</v>
       </c>
-      <c r="B21" s="2">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-1.4957264957264904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B22" s="2" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>44985</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.57471264367816577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="B23" s="2">
-        <v>137.30000000000001</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-0.65123010130244685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B24" s="2" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>44926</v>
       </c>
-      <c r="B24" s="2">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>-1.2363636363636243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B25" s="2" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>44895</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2" t="n">
         <v>135.4</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>-1.5272727272727216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>44865</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.87719298245612087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>44834</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2" t="n">
         <v>139.5</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>44804</v>
       </c>
-      <c r="B28" s="2">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>3.7257824143070106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B29" s="2" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>44773</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2" t="n">
         <v>138.5</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>2.6686434395848835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>44742</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2" t="n">
         <v>141.4</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>3.894195444526094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>44712</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2" t="n">
         <v>140.5</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>2.6296566837107349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>44681</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2" t="n">
         <v>139.6</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1.6751638747268593</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>44651</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2" t="n">
         <v>140.4</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C39" si="1">(B33/B45-1)*100</f>
-        <v>3.2352941176470695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>44620</v>
       </c>
-      <c r="B34" s="2">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>4.1136873597606538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="B35" s="2" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>44592</v>
       </c>
-      <c r="B35" s="2">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>0.72886297376093534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B36" s="2" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>44561</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2" t="n">
         <v>137.5</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1.5509601181683763</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>44530</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2" t="n">
         <v>137.5</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>3.1507876969242288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>44500</v>
       </c>
-      <c r="B38" s="2">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>2.0895522388059806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="B39" s="2" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>44469</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>1.5037593984962516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>44439</v>
       </c>
-      <c r="B40" s="2">
-        <v>134.19999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="B41" s="2" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>44408</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2" t="n">
         <v>134.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>44377</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2" t="n">
         <v>136.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>44347</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2" t="n">
         <v>136.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>44316</v>
       </c>
-      <c r="B44" s="2">
-        <v>137.30000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="B45" s="2" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44286</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2" t="n">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>44255</v>
       </c>
-      <c r="B46" s="2">
-        <v>133.69999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="B47" s="2" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>44227</v>
       </c>
-      <c r="B47" s="2">
-        <v>137.19999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="B48" s="2" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>44196</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2" t="n">
         <v>135.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>44165</v>
       </c>
-      <c r="B49" s="2">
-        <v>133.30000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="B50" s="2" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>44135</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>139.3</v>
       </c>
       <c r="C3">
@@ -506,10 +508,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -518,10 +520,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -530,10 +532,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -542,10 +544,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -590,10 +592,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -902,10 +904,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -914,7 +916,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>137.5</v>
@@ -926,10 +928,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1082,13 +1084,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,22 +495,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>139.3</v>
       </c>
       <c r="C4">
@@ -520,10 +522,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -532,10 +534,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -544,10 +546,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -556,10 +558,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -568,10 +570,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -592,10 +594,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -604,10 +606,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -616,10 +618,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -628,10 +630,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -640,10 +642,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -664,10 +666,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -676,10 +678,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -688,10 +690,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -700,10 +702,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -712,10 +714,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -724,10 +726,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -736,10 +738,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -748,10 +750,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -772,10 +774,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -784,10 +786,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -808,10 +810,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -820,10 +822,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -832,10 +834,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -844,10 +846,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -916,10 +918,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -928,7 +930,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>137.5</v>
@@ -940,10 +942,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1096,13 +1098,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,22 +509,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>139.3</v>
       </c>
       <c r="C5">
@@ -534,10 +536,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -546,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -558,10 +560,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -570,10 +572,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -702,10 +704,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -714,10 +716,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -750,10 +752,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -942,7 +944,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>137.5</v>
@@ -954,10 +956,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1110,13 +1112,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,22 +523,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>139.3</v>
       </c>
       <c r="C6">
@@ -548,10 +550,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -560,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -572,10 +574,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -584,10 +586,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -596,10 +598,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -608,10 +610,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -620,10 +622,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -632,10 +634,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -644,10 +646,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -656,10 +658,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -668,10 +670,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -680,10 +682,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -692,10 +694,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -716,10 +718,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -728,10 +730,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -740,10 +742,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -752,10 +754,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -764,10 +766,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -776,10 +778,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -860,10 +862,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -872,10 +874,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -956,7 +958,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>137.5</v>
@@ -968,10 +970,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1124,13 +1126,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,11 +523,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -537,22 +537,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>139.3</v>
       </c>
       <c r="C7">
@@ -562,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -574,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -586,10 +588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -598,10 +600,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -634,10 +636,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -670,10 +672,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -706,10 +708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -730,10 +732,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -742,10 +744,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -778,10 +780,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -970,7 +972,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>137.5</v>
@@ -982,10 +984,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>134.2</v>
+        <v>135</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1102,10 +1104,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1114,10 +1116,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1138,13 +1140,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <f>(B57/B69-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,241 +481,243 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.3</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>139.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1.16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C10" t="n">
-        <v>1.45</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.87</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.64</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.18</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.06</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C20" t="n">
-        <v>0.29</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C22" t="n">
         <v>-0.65</v>
@@ -723,364 +725,375 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C23" t="n">
-        <v>0.29</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.62</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.35</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.58</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.5</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.57</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.65</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.24</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.53</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C32" t="n">
-        <v>0.88</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C33" t="n">
-        <v>3.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C34" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C35" t="n">
-        <v>2.67</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C36" t="n">
-        <v>3.89</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C37" t="n">
-        <v>2.63</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C39" t="n">
-        <v>3.24</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C40" t="n">
-        <v>4.11</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.73</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C42" t="n">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>137.5</v>
       </c>
       <c r="C43" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C44" t="n">
-        <v>2.09</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B58" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,254 +481,256 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>137</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.44</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.3</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.59</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>139.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1.16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C11" t="n">
-        <v>1.45</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C13" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.87</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.64</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.18</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C19" t="n">
-        <v>2.06</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C20" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C23" t="n">
         <v>-0.65</v>
@@ -736,364 +738,375 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.29</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.62</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.35</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.58</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.5</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.57</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.65</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.24</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.53</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.88</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C34" t="n">
-        <v>3.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C35" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C36" t="n">
-        <v>2.67</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C37" t="n">
-        <v>3.89</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C38" t="n">
-        <v>2.63</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C40" t="n">
-        <v>3.24</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C41" t="n">
-        <v>4.11</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.73</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C43" t="n">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>137.5</v>
       </c>
       <c r="C44" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C45" t="n">
-        <v>2.09</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C46" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B59" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137</v>
+        <v>137.4</v>
       </c>
       <c r="C2" t="n">
         <v>-1.08</v>
@@ -494,254 +494,256 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.44</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.3</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.59</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C7" t="n">
-        <v>2.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>139.3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1.16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C12" t="n">
-        <v>1.45</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C14" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.87</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.64</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.18</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C20" t="n">
-        <v>2.06</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C21" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C24" t="n">
         <v>-0.65</v>
@@ -749,364 +751,375 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.62</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.35</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.58</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.5</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.57</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.65</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.24</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.53</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C34" t="n">
-        <v>0.88</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C35" t="n">
-        <v>3.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C36" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C37" t="n">
-        <v>2.67</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C38" t="n">
-        <v>3.89</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C39" t="n">
-        <v>2.63</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C40" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C41" t="n">
-        <v>3.24</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C42" t="n">
-        <v>4.11</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.73</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C44" t="n">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>137.5</v>
       </c>
       <c r="C45" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C46" t="n">
-        <v>2.09</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C47" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B60" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/freight.xlsx
+++ b/data/freight.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,24 +481,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.4</v>
+        <v>138.9</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137</v>
+        <v>137.4</v>
       </c>
       <c r="C3" t="n">
         <v>-1.08</v>
@@ -507,254 +507,256 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.44</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.3</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.9</v>
+        <v>137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.1</v>
+        <v>137.9</v>
       </c>
       <c r="C8" t="n">
-        <v>2.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>139.3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>1.16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>139</v>
+        <v>139.3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>140.3</v>
+        <v>139</v>
       </c>
       <c r="C13" t="n">
-        <v>1.45</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>138.9</v>
+        <v>140.3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>138.5</v>
+        <v>138.9</v>
       </c>
       <c r="C15" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>139</v>
+        <v>138.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>137.1</v>
+        <v>135.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.87</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>137.7</v>
+        <v>137.1</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.64</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>134.3</v>
+        <v>137.7</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.18</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>138.6</v>
+        <v>134.3</v>
       </c>
       <c r="C21" t="n">
-        <v>2.06</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>137.7</v>
+        <v>138.6</v>
       </c>
       <c r="C22" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>138.4</v>
+        <v>137.7</v>
       </c>
       <c r="C23" t="n">
-        <v>0.29</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>138.6</v>
+        <v>138.4</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>138.3</v>
+        <v>138.6</v>
       </c>
       <c r="C25" t="n">
         <v>-0.65</v>
@@ -762,364 +764,375 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.29</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>137.7</v>
+        <v>138.9</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.62</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>137.2</v>
+        <v>137.7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.35</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>137.4</v>
+        <v>137.2</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.58</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>138.3</v>
+        <v>137.4</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.5</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>140</v>
+        <v>138.3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.57</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>137.3</v>
+        <v>140</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.65</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>135.8</v>
+        <v>137.3</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.24</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.53</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>138</v>
+        <v>135.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.88</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="C36" t="n">
-        <v>3.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="C37" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>138.5</v>
+        <v>139.2</v>
       </c>
       <c r="C38" t="n">
-        <v>2.67</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>141.4</v>
+        <v>138.5</v>
       </c>
       <c r="C39" t="n">
-        <v>3.89</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>140.5</v>
+        <v>141.4</v>
       </c>
       <c r="C40" t="n">
-        <v>2.63</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>139.6</v>
+        <v>140.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>140.4</v>
+        <v>139.6</v>
       </c>
       <c r="C42" t="n">
-        <v>3.24</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>139.2</v>
+        <v>140.4</v>
       </c>
       <c r="C43" t="n">
-        <v>4.11</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>138.2</v>
+        <v>139.2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.73</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="C45" t="n">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>137.5</v>
       </c>
       <c r="C46" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>136.8</v>
+        <v>137.5</v>
       </c>
       <c r="C47" t="n">
-        <v>2.09</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>135</v>
+        <v>136.8</v>
       </c>
       <c r="C48" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>134.9</v>
+        <v>134.2</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>136.1</v>
+        <v>134.9</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>136.9</v>
+        <v>136.1</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>137.3</v>
+        <v>136.9</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>136</v>
+        <v>137.3</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>133.7</v>
+        <v>136</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>137.2</v>
+        <v>133.7</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>135.4</v>
+        <v>137.2</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>133.3</v>
+        <v>135.4</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>134</v>
+        <v>133.3</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B61" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
